--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik november 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik november 2024.xlsx
@@ -463,7 +463,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -570,7 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -2444,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757DEBF5-5BBE-4349-BDB2-935A038C44AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106FE68D-CE66-4F15-8706-78708FF7B4EB}">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2992,7 +2992,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -3857,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7921889-A9F2-4C3F-83A1-9FEAD8DC1FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E7894-7455-4BD2-82B3-31EA9BDFB49E}">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
